--- a/Atelier_1/donnees/NoteEtudiant.xlsx
+++ b/Atelier_1/donnees/NoteEtudiant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bera1923\Desktop\Ateliers_ALEA\Atelier_1\donnees\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BDB66AC-403F-478D-B30F-B03C959A5C1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C953D7F-FFE1-418F-A568-37B00ADFEE76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7860" xr2:uid="{9C2A06C8-FD05-4403-A0EC-E8ED7C9F45BF}"/>
   </bookViews>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Français</t>
-  </si>
-  <si>
-    <t>Etudiant</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Mathematique</t>
   </si>
@@ -45,7 +39,10 @@
     <t>Histoire</t>
   </si>
   <si>
-    <t>Dance</t>
+    <t>Danse</t>
+  </si>
+  <si>
+    <t>Francais</t>
   </si>
 </sst>
 </file>
@@ -397,152 +394,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E977FF07-A338-4D94-B6DD-EA30FD989854}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="B2">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C2">
+        <v>59</v>
+      </c>
+      <c r="D2">
+        <v>73</v>
+      </c>
+      <c r="E2">
+        <v>82</v>
+      </c>
+      <c r="F2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>63</v>
+      </c>
+      <c r="B3">
+        <v>92</v>
+      </c>
+      <c r="C3">
+        <v>44</v>
+      </c>
+      <c r="D3">
+        <v>64</v>
+      </c>
+      <c r="E3">
+        <v>54</v>
+      </c>
+      <c r="F3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>63</v>
+      </c>
+      <c r="B4">
+        <v>97</v>
+      </c>
+      <c r="C4">
         <v>57</v>
       </c>
-      <c r="D2">
-        <v>59</v>
-      </c>
-      <c r="E2">
-        <v>73</v>
-      </c>
-      <c r="F2">
-        <v>82</v>
-      </c>
-      <c r="G2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>63</v>
-      </c>
-      <c r="C3">
-        <v>92</v>
-      </c>
-      <c r="D3">
-        <v>44</v>
-      </c>
-      <c r="E3">
-        <v>64</v>
-      </c>
-      <c r="F3">
-        <v>54</v>
-      </c>
-      <c r="G3">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>63</v>
-      </c>
-      <c r="C4">
-        <v>97</v>
-      </c>
       <c r="D4">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4">
         <v>56</v>
       </c>
       <c r="F4">
-        <v>56</v>
-      </c>
-      <c r="G4">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="B5">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="C5">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D5">
+        <v>98</v>
+      </c>
+      <c r="E5">
         <v>88</v>
       </c>
-      <c r="E5">
-        <v>98</v>
-      </c>
       <c r="F5">
-        <v>88</v>
-      </c>
-      <c r="G5">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="B6">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="C6">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="D6">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="E6">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F6">
-        <v>93</v>
-      </c>
-      <c r="G6">
         <v>61</v>
       </c>
     </row>
